--- a/public/files/template/inventory/kibb.xlsx
+++ b/public/files/template/inventory/kibb.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>:</t>
   </si>
@@ -181,6 +181,27 @@
   </si>
   <si>
     <t>PERALATAN DAN MESIN</t>
+  </si>
+  <si>
+    <t>[b.kd_prov]</t>
+  </si>
+  <si>
+    <t>[b.kd_kab]</t>
+  </si>
+  <si>
+    <t>BIDANG KESEHATAN</t>
+  </si>
+  <si>
+    <t>SUDIN KESEHATAN MASYARAKAT</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_kec]</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_upb]</t>
+  </si>
+  <si>
+    <t>[b.kode]</t>
   </si>
 </sst>
 </file>
@@ -366,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -444,6 +465,33 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -453,31 +501,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,7 +559,13 @@
       <sheetName val="KIB F"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Provinsi</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
@@ -544,48 +577,30 @@
           <cell r="B3" t="str">
             <v>Provinsi</v>
           </cell>
-          <cell r="G3" t="str">
-            <v>DAERAH KHUSUS IBUKOTA JAKARTA</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
             <v>Kab./Kota</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>KOTA JAKARTA TIMUR</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
             <v>Bidang</v>
           </cell>
-          <cell r="G5" t="str">
-            <v>BIDANG KESEHATAN</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
             <v>Unit Organisasi</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>SUDIN KESEHATAN MASYARAKAT</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
             <v>Sub Unit Organisasi</v>
           </cell>
-          <cell r="G7" t="str">
-            <v>PKM KEC. MATRAMAN</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
             <v>U P B</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>PKM KEC. MATRAMAN</v>
           </cell>
         </row>
       </sheetData>
@@ -885,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,47 +927,47 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -994,9 +1009,8 @@
       <c r="F4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="str">
-        <f>'[1]KIB C'!G3</f>
-        <v>DAERAH KHUSUS IBUKOTA JAKARTA</v>
+      <c r="G4" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="20"/>
@@ -1022,9 +1036,8 @@
       <c r="F5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="str">
-        <f>'[1]KIB C'!G4</f>
-        <v>KOTA JAKARTA TIMUR</v>
+      <c r="G5" s="39" t="s">
+        <v>52</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20"/>
@@ -1050,9 +1063,8 @@
       <c r="F6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="str">
-        <f>'[1]KIB C'!G5</f>
-        <v>BIDANG KESEHATAN</v>
+      <c r="G6" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20"/>
@@ -1078,9 +1090,8 @@
       <c r="F7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="18" t="str">
-        <f>'[1]KIB C'!G6</f>
-        <v>SUDIN KESEHATAN MASYARAKAT</v>
+      <c r="G7" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="20"/>
@@ -1106,9 +1117,8 @@
       <c r="F8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="18" t="str">
-        <f>'[1]KIB C'!G7</f>
-        <v>PKM KEC. MATRAMAN</v>
+      <c r="G8" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="20"/>
@@ -1134,9 +1144,8 @@
       <c r="F9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="18" t="str">
-        <f>'[1]KIB C'!G8</f>
-        <v>PKM KEC. MATRAMAN</v>
+      <c r="G9" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -1157,7 +1166,9 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1185,93 +1196,93 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="35" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35" t="s">
+      <c r="N12" s="30"/>
+      <c r="O12" s="30" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="N14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="35"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1323,21 +1334,21 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1347,7 +1358,7 @@
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1604,6 +1615,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A16:O16"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B13:B14"/>
@@ -1620,9 +1634,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A16:O16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/files/template/inventory/kibb.xlsx
+++ b/public/files/template/inventory/kibb.xlsx
@@ -387,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -432,9 +432,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -468,15 +465,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,21 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,7 +898,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D3" sqref="D3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,48 +923,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -976,26 +973,24 @@
         <v>GEDUNG DAN BANGUNAN</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="18">
+      <c r="E3" s="17">
         <f>'[1]KIB C'!G2</f>
         <v>0</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1004,25 +999,23 @@
         <v>Provinsi</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="E4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1031,25 +1024,23 @@
         <v>Kab./Kota</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="E5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1058,25 +1049,23 @@
         <v>Bidang</v>
       </c>
       <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="E6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="19"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1085,25 +1074,23 @@
         <v>Unit Organisasi</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="E7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1112,25 +1099,23 @@
         <v>Sub Unit Organisasi</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="E8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1139,34 +1124,30 @@
         <v>U P B</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="E9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="40" t="s">
+      <c r="E10" s="28" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="2"/>
@@ -1196,103 +1177,103 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30" t="s">
+      <c r="N12" s="29"/>
+      <c r="O12" s="29" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
       <c r="M14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="N14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="30"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -1334,31 +1315,31 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1615,6 +1596,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
     <mergeCell ref="M12:N13"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A16:O16"/>
@@ -1631,9 +1615,6 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
